--- a/Excel操作/Excel操作/bin/Debug/电机数据表.xlsx
+++ b/Excel操作/Excel操作/bin/Debug/电机数据表.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C981DC59-4F14-4351-8F80-D750ED1CCBB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909CD9C7-0BB6-4A40-9D36-2B0496ECACAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OP10" sheetId="4" r:id="rId1"/>
@@ -1312,7 +1312,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1361,6 +1361,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13913,7 +13916,7 @@
   <dimension ref="A1:S523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13972,7 +13975,7 @@
       <c r="O1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="17" t="s">
         <v>133</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -13981,7 +13984,7 @@
       <c r="R1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="17" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14205,8 +14208,8 @@
       <c r="B6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>5</v>
+      <c r="C6" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>128</v>
@@ -14321,10 +14324,10 @@
         <v>104</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>40</v>
@@ -14382,7 +14385,7 @@
       <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
